--- a/Data_loading/Demand2028.xlsx
+++ b/Data_loading/Demand2028.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beheerder\Documents\TIL\Jaar 2\Q2\Design Project\PostNL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beheerder\Documents\TIL\Jaar 2\Q2\Design Project\PostNL\Data_loading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63E71EF-705C-4EB5-A8AD-7F1EC493557C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6DB0BA-31C2-4FEF-97AE-3BBE009AA1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="3890" windowWidth="19420" windowHeight="11500" xr2:uid="{13A00192-62F6-42B3-AA95-EEB548BFC0A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13A00192-62F6-42B3-AA95-EEB548BFC0A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -6806,16 +6806,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26382661-BB06-4916-AF6E-EC60A5FEE799}">
   <dimension ref="A1:D2125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2116" workbookViewId="0">
-      <selection activeCell="C2131" sqref="C2131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="4" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
